--- a/biology/Médecine/Fludarabine/Fludarabine.xlsx
+++ b/biology/Médecine/Fludarabine/Fludarabine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fludarabine (ou 9β-D-arabinofuranosyl-2-fluoroadénine) est un médicament anticancéreux utilisé dans le traitement de la leucémie lymphoïde chronique. 
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1960 l'équipe dirigée par Bernard Randall Baker à Stanford synthétise la vidarabine. Suivant la découverte du 5-fluorouracile en 1957 John Montgomery et Kathleen Hewson du Southern Research Institute synthétise la 2-fluoroadénosine (fludarabine)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1960 l'équipe dirigée par Bernard Randall Baker à Stanford synthétise la vidarabine. Suivant la découverte du 5-fluorouracile en 1957 John Montgomery et Kathleen Hewson du Southern Research Institute synthétise la 2-fluoroadénosine (fludarabine).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est utilisée, en France, dans le traitement de la leucémie lymphoïde chronique (LLC) à cellules B[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée, en France, dans le traitement de la leucémie lymphoïde chronique (LLC) à cellules B,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fludarabine est utilisée en tant que principe actif sous sa forme phosphorylée, le phosphate de fludarabine[3],[5]. La forme non phosphorylée existe également pour d'autres usages[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fludarabine est utilisée en tant que principe actif sous sa forme phosphorylée, le phosphate de fludarabine,. La forme non phosphorylée existe également pour d'autres usages.
 </t>
         </is>
       </c>
